--- a/SeleniumAutomation/src/main/java/org/obsquare/Resources/TestData.xlsx
+++ b/SeleniumAutomation/src/main/java/org/obsquare/Resources/TestData.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13830" windowHeight="6045" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="15435" windowHeight="6045" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManagePage" sheetId="2" r:id="rId2"/>
     <sheet name="AdminUserPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageLocationPage" sheetId="4" r:id="rId4"/>
+    <sheet name="PageNotificationPage" sheetId="5" r:id="rId5"/>
+    <sheet name="MobileSliderPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageProductPage" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:C7"/>
@@ -18,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>ValidUSername</t>
   </si>
@@ -84,6 +87,51 @@
   </si>
   <si>
     <t>DeliveryCharge</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Alerts can be shown once it is added successfully in the table</t>
+  </si>
+  <si>
+    <t>AdminUSer</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Litrevalue</t>
+  </si>
+  <si>
+    <t>LitrePricevalue</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>CategoryValue</t>
+  </si>
+  <si>
+    <t>Atta &amp; Flour</t>
+  </si>
+  <si>
+    <t>CategorySubOption</t>
+  </si>
+  <si>
+    <t>Stockvalue</t>
   </si>
 </sst>
 </file>
@@ -96,13 +144,25 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -581,140 +641,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1038,7 +1107,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1048,84 +1117,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,63 +1219,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1219,7 +1288,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1335,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1276,17 +1345,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1303,6 +1372,162 @@
     <row r="8" spans="1:1">
       <c r="A8">
         <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="56.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="48.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="28.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
